--- a/outputs/MLK_PMT_10101_-_V-001.xlsx
+++ b/outputs/MLK_PMT_10101_-_V-001.xlsx
@@ -889,12 +889,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>SHELL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Liquid/Vapor</t>
+          <t>Liquid/Gas</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -919,34 +919,34 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>100 C</t>
+          <t>165 C</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10.5 Bar</t>
+          <t>10.34 bar G</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>90 C</t>
+          <t>150 C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>9 Bar</t>
+          <t>6.9 bar G</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>Plate Head</t>
+          <t>PLATE HEAD</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -971,34 +971,34 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>100 C</t>
+          <t>165 C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>10.5 Bar</t>
+          <t>10.34 bar G</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>90 C</t>
+          <t>150 C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>9 Bar</t>
+          <t>6.9 bar G</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>Coupling</t>
+          <t>HALF COUPLING</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1016,41 +1016,36 @@
           <t>SA-105</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>100 C</t>
+          <t>165 C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10.5 Bar</t>
+          <t>10.34 bar G</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>90 C</t>
+          <t>150 C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>9 Bar</t>
+          <t>6.9 bar G</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Full Coupling</t>
+          <t>FULL COUPLING</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1068,34 +1063,29 @@
           <t>SA-105</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>100 C</t>
+          <t>165 C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10.5 Bar</t>
+          <t>10.34 bar G</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>90 C</t>
+          <t>150 C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>9 Bar</t>
+          <t>6.9 bar G</t>
         </is>
       </c>
     </row>

--- a/outputs/MLK_PMT_10101_-_V-001.xlsx
+++ b/outputs/MLK_PMT_10101_-_V-001.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -882,11 +882,7 @@
           <t>MLK_PMT_10101_-_V-001</t>
         </is>
       </c>
-      <c r="D8" s="29" t="inlineStr">
-        <is>
-          <t>Air Receiver</t>
-        </is>
-      </c>
+      <c r="D8" s="29" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>SHELL</t>
@@ -894,7 +890,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Liquid/Gas</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -924,29 +920,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>165 C</t>
+          <t>100 DEG. C</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10.34 bar G</t>
+          <t>10 BARG</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>150 C</t>
+          <t>80 DEG. C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>6.9 bar G</t>
+          <t>8.0 BARG</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>PLATE HEAD</t>
+          <t>TOP HEAD</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -976,29 +972,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>165 C</t>
+          <t>100 DEG. C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>10.34 bar G</t>
+          <t>10 BARG</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>150 C</t>
+          <t>80 DEG. C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>6.9 bar G</t>
+          <t>8.0 BARG</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>HALF COUPLING</t>
+          <t>BOTTOM HEAD</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1013,7 +1009,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SA-105</t>
+          <t>SA-516</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>70</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1023,22 +1024,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>165 C</t>
+          <t>100 DEG. C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10.34 bar G</t>
+          <t>10 BARG</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>150 C</t>
+          <t>80 DEG. C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>6.9 bar G</t>
+          <t>8.0 BARG</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1071,69 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>165 C</t>
+          <t>100 DEG. C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10.34 bar G</t>
+          <t>10 BARG</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>150 C</t>
+          <t>80 DEG. C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>6.9 bar G</t>
+          <t>8.0 BARG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FULL COUPLING</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>WATER / STEAM</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Carbon Steel</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>SA-105</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>100 DEG. C</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>10 BARG</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>80 DEG. C</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>8.0 BARG</t>
         </is>
       </c>
     </row>
@@ -1093,21 +1141,21 @@
   <mergeCells count="19">
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="H5:J6"/>
+    <mergeCell ref="C8:C12"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D12"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:C11"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="D8:D11"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B8:B12"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="N5:O6"/>
   </mergeCells>

--- a/outputs/MLK_PMT_10101_-_V-001.xlsx
+++ b/outputs/MLK_PMT_10101_-_V-001.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -207,55 +207,55 @@
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,36 +693,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18.21875" customWidth="1" min="2" max="2"/>
+    <col width="18.28515625" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="31.5546875" customWidth="1" min="4" max="4"/>
-    <col width="17.77734375" customWidth="1" min="5" max="5"/>
-    <col width="12.77734375" customWidth="1" min="6" max="6"/>
-    <col width="13.6640625" customWidth="1" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" min="8" max="8"/>
-    <col width="14.21875" customWidth="1" min="11" max="11"/>
-    <col width="11.77734375" customWidth="1" min="12" max="12"/>
-    <col width="17.109375" customWidth="1" min="13" max="13"/>
-    <col width="11.109375" customWidth="1" min="14" max="14"/>
-    <col width="16.44140625" customWidth="1" min="15" max="15"/>
+    <col width="31.5703125" customWidth="1" min="4" max="4"/>
+    <col width="17.7109375" customWidth="1" min="5" max="5"/>
+    <col width="12.7109375" customWidth="1" min="6" max="6"/>
+    <col width="13.7109375" customWidth="1" min="7" max="7"/>
+    <col width="8.85546875" customWidth="1" min="8" max="8"/>
+    <col width="14.28515625" customWidth="1" min="11" max="11"/>
+    <col width="11.7109375" customWidth="1" min="12" max="12"/>
+    <col width="17.140625" customWidth="1" min="13" max="13"/>
+    <col width="11.140625" customWidth="1" min="14" max="14"/>
+    <col width="16.42578125" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
+    <row r="1" ht="18.75" customHeight="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">IPETRO PLANT </t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="29" t="n"/>
       <c r="B2" s="30" t="inlineStr">
         <is>
@@ -732,16 +732,7 @@
       <c r="C2" s="29" t="n"/>
       <c r="D2" s="29" t="n"/>
     </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="29" t="n"/>
-      <c r="B3" s="30" t="inlineStr">
-        <is>
-          <t>TOTAL NO. OF EQUIPMENT: 10 EQUIPMENTS</t>
-        </is>
-      </c>
-      <c r="C3" s="29" t="n"/>
-      <c r="D3" s="29" t="n"/>
-    </row>
+    <row r="3" ht="18.75" customHeight="1"/>
     <row r="4"/>
     <row r="5">
       <c r="A5" s="19" t="inlineStr">
@@ -779,25 +770,25 @@
           <t>FLUID</t>
         </is>
       </c>
-      <c r="H5" s="17" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>MATERIAL INFORMATION</t>
         </is>
       </c>
       <c r="I5" s="21" t="n"/>
       <c r="J5" s="22" t="n"/>
-      <c r="K5" s="17" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>INSULATION</t>
         </is>
       </c>
-      <c r="L5" s="17" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>DESIGN</t>
         </is>
       </c>
       <c r="M5" s="22" t="n"/>
-      <c r="N5" s="17" t="inlineStr">
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>OPERATING</t>
         </is>
@@ -829,38 +820,38 @@
       <c r="E7" s="28" t="n"/>
       <c r="F7" s="28" t="n"/>
       <c r="G7" s="28" t="n"/>
-      <c r="H7" s="17" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="I7" s="17" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>SPEC.</t>
         </is>
       </c>
-      <c r="J7" s="17" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>GRADE</t>
         </is>
       </c>
       <c r="K7" s="28" t="n"/>
-      <c r="L7" s="17" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TEMP. (°C) </t>
         </is>
       </c>
-      <c r="M7" s="17" t="inlineStr">
+      <c r="M7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">PRESSURE (Mpa) </t>
         </is>
       </c>
-      <c r="N7" s="18" t="inlineStr">
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>TEMP. (°C)</t>
         </is>
       </c>
-      <c r="O7" s="18" t="inlineStr">
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>PRESSURE (Mpa)</t>
         </is>
@@ -890,7 +881,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Liquid/Gas</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -920,29 +911,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>100 DEG. C</t>
+          <t>150 DEG.C</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10 BARG</t>
+          <t>10.1 KG/CM2G</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>80 DEG. C</t>
+          <t>100 DEG.C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>8.0 BARG</t>
+          <t>8.0 KG/CM2G</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>TOP HEAD</t>
+          <t>PLATE HEAD</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -972,29 +963,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>100 DEG. C</t>
+          <t>150 DEG.C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>10 BARG</t>
+          <t>10.1 KG/CM2G</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>80 DEG. C</t>
+          <t>100 DEG.C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>8.0 BARG</t>
+          <t>8.0 KG/CM2G</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>BOTTOM HEAD</t>
+          <t>BASE PLATE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1009,12 +1000,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>SA-516</t>
+          <t>SA-283</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1024,22 +1015,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>100 DEG. C</t>
+          <t>150 DEG.C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10 BARG</t>
+          <t>10.1 KG/CM2G</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>80 DEG. C</t>
+          <t>100 DEG.C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>8.0 BARG</t>
+          <t>8.0 KG/CM2G</t>
         </is>
       </c>
     </row>
@@ -1071,29 +1062,29 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>100 DEG. C</t>
+          <t>150 DEG.C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10 BARG</t>
+          <t>10.1 KG/CM2G</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>80 DEG. C</t>
+          <t>100 DEG.C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>8.0 BARG</t>
+          <t>8.0 KG/CM2G</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>FULL COUPLING</t>
+          <t>HALF COUPLING</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1118,43 +1109,640 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>100 DEG. C</t>
+          <t>150 DEG.C</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10 BARG</t>
+          <t>10.1 KG/CM2G</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>80 DEG. C</t>
+          <t>100 DEG.C</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>8.0 BARG</t>
+          <t>8.0 KG/CM2G</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B13" s="29" t="inlineStr">
+        <is>
+          <t>V-002</t>
+        </is>
+      </c>
+      <c r="C13" s="29" t="inlineStr">
+        <is>
+          <t>MLK_PMT_10102_-_V-002</t>
+        </is>
+      </c>
+      <c r="D13" s="29" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>PLATE 1571x600x5thk SHELL TO BE ROLLED</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Liquid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SA-240</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>316L</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DISH HEAD 8thk TO BE FORMED TO 2:1 TYPE</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>SA-240</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>316L</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SEAMLESS PIPE DN50 x 87 SCH 40s</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SA-312</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>TP 316L</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SEAMLESS PIPE DN25 x 100 SCH 40s</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SA-312</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>TP 316L</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SEAMLESS PIPE DN150 x 112 SCH 40s</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SA-312</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>TP 316L</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FLANGE DN50 CLASS 150 WNRF SCH 40s</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>SA-182</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>F316L</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>FLANGE DN25 CLASS 150 WNRF SCH 40s</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>SA-182</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>F316L</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FLANGE DN150 CLASS 150 WNRF SCH 40s</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SA-182</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>F316L</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BASE PLATE 150 x 150 x 5thk</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>SA-240</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Gr. 304</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>DOUBLER PLATE 120 x 150 x 12.7thk</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>SA-240 M</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Gr.304</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>EQUAL ANGLE BAR 3" x 3" x 1/4" thk</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>DMSO</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Stainless Steel</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>SA-240 M</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Gr.304</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1.1 BarG</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>100 °C</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1.0 BarG</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="H5:J6"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D13:D23"/>
     <mergeCell ref="D8:D12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="C13:C23"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="K5:K7"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="N5:O6"/>
